--- a/Public/doc/ZJ/项目问题跟踪表_张洁.xlsx
+++ b/Public/doc/ZJ/项目问题跟踪表_张洁.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -189,6 +189,22 @@
   </si>
   <si>
     <t>find函数换成select()函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量退还用户押金功能未实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax传输数组到后台处理未返回结果，数组作为查询条件使用不来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未找到措施</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -843,7 +859,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2045,17 +2061,37 @@
       <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="16"/>
+      <c r="C9" s="8">
+        <v>42865</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="9"/>
+      <c r="M9" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
